--- a/instance/zyjk/gw/report/gwCase.xlsx
+++ b/instance/zyjk/gw/report/gwCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" tabRatio="730"/>
+    <workbookView windowWidth="28800" windowHeight="13160" tabRatio="730"/>
   </bookViews>
   <sheets>
     <sheet name="7精神障碍" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>result</t>
   </si>
@@ -68,52 +68,46 @@
     <t>三级机构</t>
   </si>
   <si>
-    <t>sql1</t>
+    <t>1</t>
   </si>
   <si>
     <t>DELETE from T_EHR_INFO where IDCARD='{idCard}'</t>
   </si>
   <si>
-    <t>sql2</t>
+    <t>2</t>
   </si>
   <si>
     <t>DELETE from T_SMI_INFO where IDCARD='{idCard}'</t>
   </si>
   <si>
-    <t>sql3</t>
+    <t>3</t>
   </si>
   <si>
-    <t>DELETE from T_SMI_INFO_DETAIL where JKYLJGDM ='{org_sub_code}'</t>
+    <t>INSERT INTO [dbo].[T_EHR_INFO] ([IDCARD], [EHR_NUM], [NAME], [SEX_CODE], [SEX_NAME], [BIRTH], [NATION_CODE], [NATION_NAME], [PERMANENT_PROVINCE_CODE], [PERMANENT_PROVINCE_NAME], [PERMANENT_CITY_CODE], [PERMANENT_CITY_NAME], [PERMANENT_DISTRICT_CODE], [PERMANENT_DISTRICT_NAME], [PERMANENT_TOWN_CODE], [PERMANENT_TOWN_NAME], [PERMANENT_VILLAGE_CODE], [PERMANENT_VILLAGE_NAME], [PERMANENT_ADDRESS], [PRESENT_PROVINCE_CODE], [PRESENT_PROVINCE_NAME], [PRESENT_CITY_CODE], [PRESENT_CITY_NAME], [PRESENT_DISTRICT_CODE], [PRESENT_DISTRICT_NAME], [PRESENT_TWON_CODE], [PRESENT_TWON_NAME], [PRESENT_VILLAGE_CODE], [PRESENT_VILLAGE_NAME], [PRESENT_ADDRESS], [PHONE], [CONTACTS_NAME], [CONTACTS_PHONE], [RESIDENCE_CODE], [RESIDENCE_NAME], [DEGREE_CODE], [DEGREE_NAME], [OCCUPATION_CODE], [OCCUPATION_NAME], [WORK_UNIT], [MARRIAGE_CODE], [MARRIAGE_NAME], [BLOOD_TYPE_CODE], [BLOOD_TYPE_NAME], [RH_BLOOD_TYPE_CODE], [RH_BLOOD_TYPE_NAME], [DISEASE_FLAG], [OPERATION_FLAG], [TRAUMA_FLAG], [TRANSFUSION_FLAG], [GENETIC_FLAG], [GENETIC_NAME], [HOST_RELATION_CODE], [HOST_RELATION_NAME], [HOST_NAME], [HOST_IDCARD], [FAMILY_NUMBER], [FAMILY_STRUCTURE], [LIVING_CONDITION_CODE], [LIVING_CONDITION_NAME], [EXHAUST_CODE], [EXHAUST_NAME], [FUEL_CODE], [FUEL_NAME], [WATER_CODE], [WATER_NAME], [TOILET_CODE], [TOILET_NAME], [LIVESTOCK_CODE], [LIVESTOCK_NAME], [CREATE_ORG_CODE], [CREATE_ORG_NAME], [CREATE_SUB_ORG_CODE], [CREATE_SUB_ORG_NAME], [MANAGE_ORG_CODE], [MANAGE_ORG_NAME], [MANAGE_SUB_ORG_CODE], [MANAGE_SUB_ORG_NAME], [CREATOR_ID], [CREATOR_NAME], [RESPONSIBLE_DOC_ID], [RESPONSIBLE_DOC_NAME], [CREATE_DATE], [IS_DELETE], [DELETE_REASON], [FINAL_STATUS], [FINAL_DATE], [OTHER_ALLERGY], [OTHER_PAYMENT], [OTHER_EXPOSURE], [EMPLOYEE_INSURANCE_CARD], [RESIDENT_INSURANCE_CARD], [POVERTY_RELIEF_CARD], [IS_SIGN], [IS_HIGH_RISK], [IS_EXAM], [EXAM_DATE], [IS_UPDATE], [UPDATE_DATE], [TEAM_ID], [EXHAUST_OTHER_NAME], [FUEL_OTHER_NAME], [WATER_OTHER_NAME], [TOILET_OTHER_NAME], [OTHER_DISABILITY], [HZLXBM], [HZLXMC], [UNMANAGED_REASON_CODE], [UNMANAGED_REASON_NAME], [FINAL_DOC_ID], [FINAL_DOC_NAME], [DEATH_DATE], [CJZH]) VALUES ('{idCard}', '{idCard}', '{name}', '1', '男', '1987-10-24', '01', '汉族', '', '', '', '', '', '', '', '', '', '', '', '37', '山东省', '370600000000', '烟台市', '370685000000', '招远市', '370685001000', '罗峰街道', '370685001001', '文化区社区居民委员会', '测试', '13322332233', '测试', '13322332233', '1', '户籍', '10', '研究生教育', '10000', '国家机关、党群组织、企业、事业单位负责人', '测试', '10', '未婚', '1', 'A型', '3', 'Rh阳性', '0', '0', '0', '0', '0', '', '02', '户主', '钱亮秋', '{idCard}', 1, '1', '1', '与成年子女同住', '1', '油烟机', '2', '煤', '1', '自来水', '1', '卫生厕所', '1', '无', '{org_sub_code}', '{org_sub_name}', '{org_sub_code}', '{org_sub_name}', '{org_sub_code}', '{org_sub_name}', '{org_sub_code}', '{org_sub_name}', 10117, '二级管理员', -1, '', '2024-07-29', 0, '', 0, '1900-01-01', '', '', '', '', '', '', '0', '0', '0', '1900-01-01', '0', '1900-01-01', -1, '', '', '', '', '', '0', '本地人员', '', '', -1, '', '1900-01-01', '')</t>
   </si>
   <si>
-    <t>sql4</t>
-  </si>
-  <si>
-    <t>INSERT INTO [dbo].[T_EHR_INFO]([IDCARD], [EHR_NUM], [NAME], [SEX_CODE], [SEX_NAME], [BIRTH], [NATION_CODE], [NATION_NAME], [PERMANENT_PROVINCE_CODE], [PERMANENT_PROVINCE_NAME], [PERMANENT_CITY_CODE], [PERMANENT_CITY_NAME], [PERMANENT_DISTRICT_CODE], [PERMANENT_DISTRICT_NAME], [PERMANENT_TOWN_CODE], [PERMANENT_TOWN_NAME], [PERMANENT_VILLAGE_CODE], [PERMANENT_VILLAGE_NAME], [PERMANENT_ADDRESS], [PRESENT_PROVINCE_CODE], [PRESENT_PROVINCE_NAME], [PRESENT_CITY_CODE], [PRESENT_CITY_NAME], [PRESENT_DISTRICT_CODE], [PRESENT_DISTRICT_NAME], [PRESENT_TWON_CODE], [PRESENT_TWON_NAME], [PRESENT_VILLAGE_CODE], [PRESENT_VILLAGE_NAME], [PRESENT_ADDRESS], [PHONE], [CONTACTS_NAME], [CONTACTS_PHONE], [RESIDENCE_CODE], [RESIDENCE_NAME], [DEGREE_CODE], [DEGREE_NAME], [OCCUPATION_CODE], [OCCUPATION_NAME], [WORK_UNIT], [MARRIAGE_CODE], [MARRIAGE_NAME], [BLOOD_TYPE_CODE], [BLOOD_TYPE_NAME], [RH_BLOOD_TYPE_CODE], [RH_BLOOD_TYPE_NAME], [DISEASE_FLAG], [OPERATION_FLAG], [TRAUMA_FLAG], [TRANSFUSION_FLAG], [GENETIC_FLAG], [GENETIC_NAME], [HOST_RELATION_CODE], [HOST_RELATION_NAME], [HOST_NAME], [HOST_IDCARD], [FAMILY_NUMBER], [FAMILY_STRUCTURE], [LIVING_CONDITION_CODE], [LIVING_CONDITION_NAME], [EXHAUST_CODE], [EXHAUST_NAME], [FUEL_CODE], [FUEL_NAME], [WATER_CODE], [WATER_NAME], [TOILET_CODE], [TOILET_NAME], [LIVESTOCK_CODE], [LIVESTOCK_NAME], [CREATE_ORG_CODE], [CREATE_ORG_NAME], [CREATE_SUB_ORG_CODE], [CREATE_SUB_ORG_NAME], [MANAGE_ORG_CODE], [MANAGE_ORG_NAME], [MANAGE_SUB_ORG_CODE], [MANAGE_SUB_ORG_NAME], [CREATOR_ID], [CREATOR_NAME], [RESPONSIBLE_DOC_ID], [RESPONSIBLE_DOC_NAME], [CREATE_DATE], [IS_DELETE], [DELETE_REASON], [FINAL_STATUS], [FINAL_DATE], [OTHER_ALLERGY], [OTHER_PAYMENT], [OTHER_EXPOSURE], [EMPLOYEE_INSURANCE_CARD], [RESIDENT_INSURANCE_CARD], [POVERTY_RELIEF_CARD], [IS_SIGN], [IS_HIGH_RISK], [IS_EXAM], [EXAM_DATE], [IS_UPDATE], [UPDATE_DATE], [TEAM_ID], [EXHAUST_OTHER_NAME], [FUEL_OTHER_NAME], [WATER_OTHER_NAME], [TOILET_OTHER_NAME], [OTHER_DISABILITY], [HZLXBM], [HZLXMC], [UNMANAGED_REASON_CODE], [UNMANAGED_REASON_NAME], [FINAL_DOC_ID], [FINAL_DOC_NAME], [DEATH_DATE], [CJZH]) VALUES ( N'{idCard}', N'{idCard}', N'{name}', '1', '男', '1987-10-24', '01', '汉族', '', '', '', '', '', '', '', '', '', '', '', '37', '山东省', '370600000000', '烟台市', '370685000000', '招远市', N'370685001000', '罗峰街道', '370685001001', '文化区社区居民委员会', '测试', '13322332233', '测试', '13322332233', '1', '户籍', '10', '研究生教育', '10000', '国家机关、党群组织、企业、事业单位负责人', '测试', '10', '未婚', '1', 'A型', '3', 'Rh阳性', N'0', '0', '0', '0', '0', '', '02', '户主', '{name}', '{idCard}', 1, '1', '1', '与成年子女同住', '1', '油烟机', '2', '煤', '1', '自来水', '1', '卫生厕所', '1', '无', N'{org_sub_code}', '{org_sub_name}', '', '', N'{org_sub_code}', '{org_sub_name}', '', '', 10117, '二级管理员', -1, '', '2024-07-29', 0, '', 0, '1900-01-01', '', '', '', '', '', '', '0', '0', '0', '1900-01-01', '0', '1900-01-01', -1, '', '', '', '', N'', '0', '本地人员', '', '', -1, N'', '1900-01-01', N'')</t>
-  </si>
-  <si>
-    <t>sql5</t>
+    <t>4</t>
   </si>
   <si>
     <t>SELECT id from T_EHR_INFO where IDCARD='{idCard}'</t>
   </si>
   <si>
-    <t>sql6</t>
+    <t>5</t>
   </si>
   <si>
-    <t>INSERT INTO [dbo].[T_SMI_INFO]([CREATE_ORG_CODE], [MANAGE_ORG_CODE], [EHR_ID], [IDCARD], [NAME], [AGE], [ADDRESS], [PHONE], [SEX_CODE], [CLOSED_STATUS], [IS_DELETE], [CREATE_DATE], [DELETE_DOC_ID], [DELETE_DOC_NAME], [CLOSED_REASON_CODE], [CLOSED_REASON_NAME], [OTHER_CLOSED_REASON], [CLOSED_DOC_ID], [CLOSED_DOC_NAME], [LAST_VISIT_DATE], [NEXT_VISIT_DATE], [UPDATE_TIME]) VALUES ('{org_sub_code}', '{org_sub_code}', {id}, '{idCard}', N'{name}', 34, N'测试', '1332233222', '1', '0', '0', '2024-07-26 10:02:12.000', -1, N'', '', N'', N'', -1, N'', '1900-01-01', '1900-01-01', '2024-07-26 10:02:12.060');</t>
+    <t>INSERT INTO [dbo].[T_SMI_INFO] ([CREATE_ORG_CODE], [MANAGE_ORG_CODE], [EHR_ID], [IDCARD], [NAME], [AGE], [ADDRESS], [PHONE], [SEX_CODE], [CLOSED_STATUS], [IS_DELETE], [CREATE_DATE], [DELETE_DOC_ID], [DELETE_DOC_NAME], [CLOSED_REASON_CODE], [CLOSED_REASON_NAME], [OTHER_CLOSED_REASON], [CLOSED_DOC_ID], [CLOSED_DOC_NAME], [LAST_VISIT_DATE], [NEXT_VISIT_DATE], [UPDATE_TIME]) VALUES ( '{org_sub_code}', '{org_sub_code}', {id}, '{idCard}','{name}', 34, '测试', '1332233222', '1', '0', '0', '2024-07-26 10:02:12.000', -1, '', '', '', '', -1, '', '2023-07-28', '2024-09-07', '2024-07-26 10:02:12.060')</t>
   </si>
   <si>
-    <t>sql7</t>
+    <t>6</t>
   </si>
   <si>
     <t>SELECT id from T_SMI_INFO WHERE IDCARD='{idCard}'</t>
   </si>
   <si>
-    <t>sql8</t>
+    <t>7</t>
   </si>
   <si>
-    <t>INSERT INTO [dbo].[T_SMI_INFO_DETAIL]([INFO_ID], [GUARDIAN_NAME], [RELATIONSHIP_CODE], [RELATIONSHIP_NAME], [GUARDIAN_ADDRESS], [GUARDIAN_PHONE], [VILLAGE_CONTACT_NAME], [VILLAGE_CONTACT_PHONE], [RESIDENT_CODE], [RESIDENT_NAME], [EMPLOYMENT_CODE], [EMPLOYMENT_NAME], [IS_AGREE], [SIGN], [SIGN_DATE], [PRIMARY_DISEASE_DATE], [SYMPTOM_CODE], [SYMPTOM_NAME], [OTHER_SYMPTOM], [LOCK_CODE], [LOCK_NAME], [OP_CODE], [OP_NAME], [FIRST_ANTIPSYCHOTIC_DATE], [IP_NUM], [DIAGNOSIS], [DIAGNOSIS_HOSPITAL], [DIAGNOSIS_DATE], [LAST_TREATMENT_CODE], [LAST_TREATMENT_NAME], [DANGEROUS_BEHAVIOR], [MILD_TROUBLE], [CAUSE_ACCIDENT], [CAUSE_DISASTER], [OTHER_HAZARDOUS_BEHAVIOR], [SELF_INJURY], [ATTEMPTED_SUICIDE], [ECONOMIC_CODE], [ECONOMIC_NAME], [OPINION], [FILL_FORM_DATE], [DOC_ID], [DOC_NAME], [PATIENT_NAME], [RELATION_NAME], [CREATE_DATE], [UPDATE_DOC_ID], [UPDATE_DOC_NAME], [UPDATE_DATE], [JSJBFL], [DJRYGH], [DJRYXM], [JKYLJGDM], [JKYLJGMC]) VALUES ({id} , N'1', '1', N'本人', N'1', '1', N'1', '', '1', N'城镇', '1', N'在岗工人', 0, N'1', '2024-07-12', '2024-07-04', '1', N'幻觉', N'', '1', N'无关锁', '1', N'未治', '1900-01-01', 1, N'1', N'1', '2024-07-04', '1', N'治愈', 0, -1, -1, -1, -1, -1, -1, '1', N'贫困，在当地贫困线标准以下', N'', '2024-07-26', -1, N'三级普通用户', N'', N'', '2024-07-26 10:28:55.490', -1, N'', '2024-07-26 10:28:55.490', '1', '10118', '三级普通用户', '{org_sub_code}', '{org_sub_name}');</t>
+    <t>INSERT INTO [dbo].[T_SMI_INFO_DETAIL] ([INFO_ID], [GUARDIAN_NAME], [RELATIONSHIP_CODE], [RELATIONSHIP_NAME], [GUARDIAN_ADDRESS], [GUARDIAN_PHONE], [VILLAGE_CONTACT_NAME], [VILLAGE_CONTACT_PHONE], [RESIDENT_CODE], [RESIDENT_NAME], [EMPLOYMENT_CODE], [EMPLOYMENT_NAME], [IS_AGREE], [SIGN], [SIGN_DATE], [PRIMARY_DISEASE_DATE], [SYMPTOM_CODE], [SYMPTOM_NAME], [OTHER_SYMPTOM], [LOCK_CODE], [LOCK_NAME], [OP_CODE], [OP_NAME], [FIRST_ANTIPSYCHOTIC_DATE], [IP_NUM], [DIAGNOSIS], [DIAGNOSIS_HOSPITAL], [DIAGNOSIS_DATE], [LAST_TREATMENT_CODE], [LAST_TREATMENT_NAME], [DANGEROUS_BEHAVIOR], [MILD_TROUBLE], [CAUSE_ACCIDENT], [CAUSE_DISASTER], [OTHER_HAZARDOUS_BEHAVIOR], [SELF_INJURY], [ATTEMPTED_SUICIDE], [ECONOMIC_CODE], [ECONOMIC_NAME], [OPINION], [FILL_FORM_DATE], [DOC_ID], [DOC_NAME], [PATIENT_NAME], [RELATION_NAME], [CREATE_DATE], [UPDATE_DOC_ID], [UPDATE_DOC_NAME], [UPDATE_DATE], [JSJBFL], [DJRYGH], [DJRYXM], [JKYLJGDM], [JKYLJGMC]) VALUES ({id}, '1', '1', '本人', '1', '1', '1', '', '1', '城镇', '1', '在岗工人', 0, '1', '2024-07-12', '2024-07-04', '1', '幻觉', '', '1', '无关锁', '1', '未治', '1900-01-01', 1, '1', '1', '2024-07-04', '1', '治愈', 0, -1, -1, -1, -1, -1, -1, '1', '贫困，在当地贫困线标准以下', '', '2024-07-26', -1, '三级普通用户', '', '', '2024-07-26 10:28:55.490', -1, '', '2024-07-26 10:28:55.490', '1', '10118', '三级普通用户', '{org_sub_code}', '{org_sub_name}')</t>
   </si>
   <si>
     <t>level2</t>
@@ -131,7 +125,7 @@
     <t>一级机构</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2、辖区内按照规范要求进行管理的严重精神障碍患者人数（人）：指从年初到统计时间点，辖区内按照规范要求进行管理的严重精神障碍患者人数。即：默认统计开始时间默认为当前年份的1月1日，统计结束时间在第N季度随访N次及以上即认为规范管理；统计结束时间在第4季度，完成4次随访和1次健康体检即认为是规范管理。涉及统计指标字段：【随访时间】【体检时间】。</t>
+    <t>2、辖区内按照规范要求进行管理的严重精神障碍患者人数（人）：指从年初到统计时间点，辖区内按照规范要求进行管理的严重精神障碍患者人数。即：默认统计开始时间默认为当前年份的1月1日，统计结束时间在第N季度随访N次及以上即认为规范管理；统计结束时间在第4季度，完成4次随访和1次健康体检即认为是规范管理。涉及统计指标字段：【随访时间】【体检时间】。</t>
   </si>
   <si>
     <t>SELECT id from T_SMI_INFO WHERE IDCARD ='{idCard}'</t>
@@ -888,6 +882,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1207,12 +1207,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC208"/>
+  <dimension ref="A1:AC207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="20.4"/>
@@ -1323,7 +1323,7 @@
       <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="13" t="s">
@@ -1360,7 +1360,7 @@
       <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="15" t="s">
@@ -1397,7 +1397,7 @@
       <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
@@ -1434,10 +1434,10 @@
       <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="14"/>
@@ -1471,10 +1471,10 @@
       <c r="E7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="14"/>
@@ -1508,10 +1508,10 @@
       <c r="E8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="14"/>
@@ -1545,10 +1545,10 @@
       <c r="E9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H9" s="14"/>
@@ -1574,21 +1574,23 @@
       <c r="AB9" s="14"/>
       <c r="AC9" s="14"/>
     </row>
-    <row r="10" ht="21" spans="3:29">
-      <c r="C10" s="5">
+    <row r="10" spans="3:29">
+      <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -1623,10 +1625,10 @@
         <v>10</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -1652,20 +1654,20 @@
     </row>
     <row r="12" spans="3:29">
       <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="G12" s="11"/>
       <c r="H12" s="14" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -1689,23 +1691,20 @@
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
     </row>
-    <row r="13" spans="3:29">
+    <row r="13" ht="21" spans="3:29">
       <c r="C13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="F13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
@@ -1732,14 +1731,15 @@
       <c r="C14" s="7">
         <v>2</v>
       </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>13</v>
+      <c r="F14" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1764,7 +1764,7 @@
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
     </row>
-    <row r="15" ht="21" spans="3:29">
+    <row r="15" spans="3:29">
       <c r="C15" s="7">
         <v>2</v>
       </c>
@@ -1772,13 +1772,15 @@
       <c r="E15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="16" t="s">
+      <c r="F15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
@@ -1809,8 +1811,8 @@
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>17</v>
+      <c r="F16" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>37</v>
@@ -1848,8 +1850,8 @@
       <c r="E17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
+      <c r="F17" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>39</v>
@@ -1887,8 +1889,8 @@
       <c r="E18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
+      <c r="F18" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>41</v>
@@ -1919,22 +1921,12 @@
       <c r="AC18" s="14"/>
     </row>
     <row r="19" spans="3:29">
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
@@ -7264,34 +7256,8 @@
       <c r="AB202" s="14"/>
       <c r="AC202" s="14"/>
     </row>
-    <row r="203" spans="3:29">
-      <c r="C203" s="7"/>
-      <c r="D203" s="7"/>
-      <c r="E203" s="7"/>
+    <row r="203" spans="6:6">
       <c r="F203" s="7"/>
-      <c r="G203" s="17"/>
-      <c r="H203" s="14"/>
-      <c r="I203" s="14"/>
-      <c r="J203" s="14"/>
-      <c r="K203" s="14"/>
-      <c r="L203" s="14"/>
-      <c r="M203" s="14"/>
-      <c r="N203" s="14"/>
-      <c r="O203" s="14"/>
-      <c r="P203" s="14"/>
-      <c r="Q203" s="14"/>
-      <c r="R203" s="14"/>
-      <c r="S203" s="14"/>
-      <c r="T203" s="14"/>
-      <c r="U203" s="14"/>
-      <c r="V203" s="14"/>
-      <c r="W203" s="14"/>
-      <c r="X203" s="14"/>
-      <c r="Y203" s="14"/>
-      <c r="Z203" s="14"/>
-      <c r="AA203" s="14"/>
-      <c r="AB203" s="14"/>
-      <c r="AC203" s="14"/>
     </row>
     <row r="204" spans="6:6">
       <c r="F204" s="7"/>
@@ -7304,9 +7270,6 @@
     </row>
     <row r="207" spans="6:6">
       <c r="F207" s="7"/>
-    </row>
-    <row r="208" spans="6:6">
-      <c r="F208" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
